--- a/dairyclimatemodel/data/household_data.xlsx
+++ b/dairyclimatemodel/data/household_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\household_ghg_model\dairyclimatemodel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DAAED987-1C1D-4605-8170-AF0C4F609BE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3233B-BE15-4075-B9DA-B98A1A600E07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -32,10 +32,15 @@
     <sheet name="crop_costs" sheetId="36" r:id="rId17"/>
     <sheet name="labour_rate" sheetId="38" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -877,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -15717,7 +15722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:I5"/>
     </sheetView>
   </sheetViews>
@@ -15941,15 +15946,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>49</v>
       </c>
@@ -15962,11 +15967,11 @@
       <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -15982,11 +15987,11 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -16002,11 +16007,11 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
